--- a/grafo/relaciones.xlsx
+++ b/grafo/relaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PARTICIPANT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DECORATION</t>
+          <t>RELATED_TO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PARTICIPATED_IN</t>
+          <t>LOCATED_IN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEVOTION_TO</t>
+          <t>ORIGIN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PATRONAGE</t>
+          <t>INCLUDES</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,7 +529,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ASSOCIATED_WITH</t>
+          <t>PATRON</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -555,7 +555,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INVOLVED_IN</t>
+          <t>DECLARED_PATRON</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>REVIVED</t>
+          <t>REVIVAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FOUNDED</t>
+          <t>FOUNDER</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORIGINATES_FROM</t>
+          <t>HOLDS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CULTIVATED</t>
+          <t>BUILT</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUILT</t>
+          <t>CULTIVATED</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEMBER_OF</t>
+          <t>CONTAINS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FEATURES</t>
+          <t>COMPETITION</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REPRESENTATION</t>
+          <t>ROOTS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -672,7 +672,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PARTICIPATES_IN</t>
+          <t>HOUSES</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROOTS_IN</t>
+          <t>CARRIES</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOUSES</t>
+          <t>DEDICATED_TO</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MADE_WIG_FOR</t>
+          <t>PARTICIPATED_IN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PATRON</t>
+          <t>DECORATED_WITH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -737,7 +737,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ALIAS</t>
+          <t>VENERATED_BY</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -750,7 +750,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IDENTITY</t>
+          <t>APPEARED_TO</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORIGIN</t>
+          <t>VICTORY_ATTRIBUTED_TO</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEDICATED_TO</t>
+          <t>FIRST_IMAGE_OF</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VISION</t>
+          <t>SUCCESSOR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -802,7 +802,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATTRIBUTED_VICTORY</t>
+          <t>PAIRED_WITH</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -815,7 +815,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HOLDS</t>
+          <t>USES</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CELEBRATION</t>
+          <t>RULER</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CAPORAL</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EX_CAPORAL</t>
+          <t>INTERACTED_WITH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -867,7 +867,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DESIGNER</t>
+          <t>RESTORED</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SUPPORTER</t>
+          <t>FRIEND</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CAPITANA</t>
+          <t>REPRESENTS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PARTICIPANT</t>
+          <t>PARTICIPATES_IN</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PERFORMED_IN</t>
+          <t>PERFORMS</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -932,270 +932,10 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INTRODUCED</t>
+          <t>HONORS</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>FOUNDED_IN</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>HISTORICAL_CONTEXT</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>INHABITED</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>LOCATED_IN</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ARRIVAL</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DREAMED_OF</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>FORMER_NAME</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SUBORDINATE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>INTERACTION</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>INTERACTED_WITH</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>WORKED_ON</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ANALYZED</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ENTERED</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ASSAULT</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>VENERATED_BY</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>LEADER</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PERFORMS_RITUAL</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PERFORMS_DANCE</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>CAPTURED_BY</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>HONORED_BY</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
         <v>1</v>
       </c>
     </row>
